--- a/训练结果/模型对比（轻量化、注意力、LOSS） - 3800.xlsx
+++ b/训练结果/模型对比（轻量化、注意力、LOSS） - 3800.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17616\Desktop\训练结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\CottonBudYOLOv1\训练结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3549F5-F00C-4569-A730-81D400DA04AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575D3C87-181F-4FA0-BFFC-6E2919D8E4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22187" windowHeight="9327" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="86">
   <si>
     <t>模型</t>
   </si>
@@ -137,15 +137,15 @@
   </si>
   <si>
     <t>检测头，满足帧率30左右的条件下，精度提高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShuffleNetv2+Dysamle(base)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShuffleNetv2+Dysamle+ASFFHead(base)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -169,7 +169,7 @@
       </rPr>
       <t>改进head后的注意力机制，neck&amp;head部位4个</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -193,7 +193,7 @@
       </rPr>
       <t>改进head后的注意力机制，neck&amp;head部位4个</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -217,199 +217,173 @@
       </rPr>
       <t>改进head后的注意力机制，sppf前1个，neck部位2个</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+GCx3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+CBAMx3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+GEx3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+MLCAx3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+GCx4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+CBAMx4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+GEx4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+MLCAx4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>95.8(-0.3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+Dysamle</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShuffleNetv2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>WIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FocalDIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FocalEIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FocalGIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShuffleNetv2+Dysamle+ASFFHead+GCx4（CIOU）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FocalCIOU</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GC位置及消融试验有了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+GCx2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>98.7（96.7）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不同模型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主干</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检测时间/ms</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FPS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模型体积/MB</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AP/%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>TOOD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AR/%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Faster-RCNN</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ResNet50</t>
   </si>
   <si>
     <t>YOLOv5s</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CottonBud-YOLOv5s</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ShuffleNetv2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CSPDarknet53</t>
   </si>
   <si>
     <t>ResNet50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GPU，跑计算量和参数；；部署到笔记本上CPU推理时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASFFHead</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GC全局注意力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型体积</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>large</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+DecoupledHead</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>base+CLLAHead</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,35 +393,11 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -459,73 +409,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -571,29 +455,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF0D0D0D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,30 +469,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -634,81 +483,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -717,237 +501,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1224,181 +810,181 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="9" width="12.26953125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="11.1796875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.25" style="2" customWidth="1"/>
+    <col min="10" max="11" width="11.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>96.1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>96.4</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>97.1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>74.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>7.01</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>14.4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>15.8</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>157</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>61.16</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>81.3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>84</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>37.299999999999997</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.81</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1.3</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>253</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>29.41</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>34</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="56"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>91.4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>91.9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>48.9</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3.55</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>8</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>195</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>42.63</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>23.5</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="56"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1416,13 +1002,13 @@
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>222</v>
       </c>
       <c r="J5" s="1">
@@ -1431,1397 +1017,1274 @@
       <c r="K5" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>96.1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>96.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>7.24</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>12.9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>13.4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>172</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>59.8</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>16.7</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="L6" s="3"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>95.4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>94.8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>96.2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>51.9</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>4.04</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>222</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>24.58</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>40.700000000000003</v>
       </c>
-      <c r="L8" s="59" t="s">
+      <c r="L8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>4.2</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2.5</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>228</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>26.11</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>38.299999999999997</v>
       </c>
-      <c r="L9" s="59"/>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>4.03</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>222</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>24.01</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>41.6</v>
       </c>
-      <c r="L10" s="59"/>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>95.5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="1">
         <v>4.05</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="2">
         <v>8.4</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="2">
         <v>224</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="1">
         <v>25.03</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="1">
         <v>40</v>
       </c>
-      <c r="L11" s="59"/>
-      <c r="M11" s="56"/>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74" t="s">
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>95.4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="1">
         <v>95.9</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="1">
         <v>96.8</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="1">
         <v>54.5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>4.05</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="2">
         <v>8.4</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="2">
         <v>224</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="1">
         <v>25.03</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="1">
         <v>40</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="56"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="6">
         <v>96</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="6">
         <v>96.6</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="6">
         <v>97.5</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="6">
         <v>57.6</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="7">
         <v>9.49</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="8">
         <v>19.3</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="2">
         <v>303</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="1">
         <v>35.11</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="6">
         <v>28.5</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="56"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1">
         <v>96.3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>97</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>97.4</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>58.5</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>11.36</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>23</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>12.3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>263</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>46.99</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>21.3</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="56"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1">
         <v>94.9</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>94.6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>96.5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>53.4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>4.38</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>8.6199999999999992</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="2">
         <v>2.9</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>239</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <v>29.14</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>34.299999999999997</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="56"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
-    </row>
-    <row r="18" spans="1:13" s="18" customFormat="1" ht="43.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63" t="s">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="5"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="6">
         <v>96</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="6">
         <v>96.6</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="6">
         <v>97.5</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="6">
         <v>57.6</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="7">
         <v>9.49</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="8">
         <v>19.3</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="2">
         <v>303</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="1">
         <v>35.11</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="6">
         <v>28.5</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="56"/>
-    </row>
-    <row r="19" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64" t="s">
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="51">
+      <c r="B19" s="1">
         <v>88.6</v>
       </c>
-      <c r="C19" s="51">
+      <c r="C19" s="1">
         <v>82.7</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="1">
         <v>87.9</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="1">
         <v>47.5</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="7">
         <v>9.49</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="8">
         <v>19.3</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="56"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="1">
         <v>94.6</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="1">
         <v>92.6</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="1">
         <v>94.1</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="1">
         <v>49.1</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="1">
         <v>9.67</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="2">
         <v>19.7</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="2">
         <v>330</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="1">
         <v>34.72</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="1">
         <v>28.8</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="56"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="1">
         <v>94.5</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="1">
         <v>93.6</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="1">
         <v>955.5</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="1">
         <v>51</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="1">
         <v>9.59</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="2">
         <v>19.5</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="2">
         <v>339</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="1">
         <v>39</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="1">
         <v>25.6</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="56"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="1">
         <v>96.1</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="1">
         <v>93.9</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="1">
         <v>96.3</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="1">
         <v>51.9</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="1">
         <v>9.59</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="2">
         <v>19.5</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="2">
         <v>327</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="1">
         <v>33.020000000000003</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="1">
         <v>30.3</v>
       </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="56"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="L22" s="3"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="1">
         <v>93.8</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="1">
         <v>93.1</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="1">
         <v>94.8</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="1">
         <v>51.1</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="1">
         <v>9.52</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="2">
         <v>318</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="56"/>
-    </row>
-    <row r="24" spans="1:13" ht="16.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="56"/>
-    </row>
-    <row r="25" spans="1:13" s="36" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="68" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="1">
         <v>96.9</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="1">
         <v>97.2</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="1">
         <v>97.9</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="1">
         <v>59.7</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="1">
         <v>9.65</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="2">
         <v>19.7</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="2">
         <v>339</v>
       </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="57" t="s">
+      <c r="L25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="56"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="1">
         <v>94.2</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="1">
         <v>94.7</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="1">
         <v>95.7</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="1">
         <v>52.7</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="56"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="69" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="1">
         <v>95.2</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="1">
         <v>95.4</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="1">
         <v>96.9</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="1">
         <v>52.9</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="1">
         <v>9.57</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="2">
         <v>19.5</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="2">
         <v>335</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="56"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="1">
         <v>95.1</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="1">
         <v>92.4</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="1">
         <v>95.3</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="1">
         <v>47.9</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="56"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="46" t="s">
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="56"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="56"/>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="1">
         <v>95.4</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="1">
         <v>95.9</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="1">
         <v>96.8</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="1">
         <v>54.5</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="1">
         <v>4.05</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="2">
         <v>8.4</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I31" s="30">
+      <c r="I31" s="2">
         <v>224</v>
       </c>
-      <c r="J31" s="29">
+      <c r="J31" s="1">
         <v>25.03</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="1">
         <v>40</v>
       </c>
-      <c r="L31" s="57" t="s">
+      <c r="L31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="56"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="1">
         <v>94</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="1">
         <v>92.2</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="1">
         <v>94.7</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="1">
         <v>49.9</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="1">
         <v>4.21</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="2">
         <v>260</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="1">
         <v>26</v>
       </c>
-      <c r="K32" s="25">
+      <c r="K32" s="1">
         <v>38.5</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="56"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="33">
+      <c r="B33" s="1">
         <v>96.5</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="1">
         <v>96.5</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="1">
         <v>97.3</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="1">
         <v>53.9</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="1">
         <v>4.13</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="2">
         <v>8.5</v>
       </c>
-      <c r="H33" s="34">
+      <c r="H33" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="2">
         <v>272</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="1">
         <v>27.49</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="1">
         <v>36.4</v>
       </c>
-      <c r="L33" s="57"/>
-      <c r="M33" s="56"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
+      <c r="L33" s="3"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="1">
         <v>95</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="1">
         <v>94.8</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="1">
         <v>95.9</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="1">
         <v>52</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="1">
         <v>4.13</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="2">
         <v>8.5</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="2">
         <v>256</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="1">
         <v>26.4</v>
       </c>
-      <c r="K34" s="25">
+      <c r="K34" s="1">
         <v>37.9</v>
       </c>
-      <c r="L34" s="57"/>
-      <c r="M34" s="56"/>
-    </row>
-    <row r="35" spans="1:13" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="70" t="s">
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="1">
         <v>94.6</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="1">
         <v>94.4</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="1">
         <v>96.2</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="1">
         <v>50.6</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="1">
         <v>4.05</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="2">
         <v>8.4</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="2">
         <v>244</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="1">
         <v>27.07</v>
       </c>
-      <c r="K35" s="31">
+      <c r="K35" s="1">
         <v>36.9</v>
       </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="56"/>
-    </row>
-    <row r="38" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="72" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="1">
         <v>96.9</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="1">
         <v>97.2</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="1">
         <v>97.9</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="1">
         <v>59.7</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="1">
         <v>9.65</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="2">
         <v>19.7</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="2">
         <v>339</v>
       </c>
-      <c r="J38" s="37"/>
-      <c r="K38" s="42"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>90.1</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>86.9</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>89.9</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>52.5</v>
       </c>
-      <c r="F39" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
+      <c r="F39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>76.599999999999994</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>68.2</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>73.2</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>30.8</v>
       </c>
-      <c r="F40" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="F40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>93.2</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>89</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>91.7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>54.9</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>94.5</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>87.9</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>91.8</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>53.6</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="F42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>93.8</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>86.9</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>91.6</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>54.9</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="35" t="s">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>93</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>88.8</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>92.6</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>56.5</v>
       </c>
-      <c r="F44" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="35" t="s">
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>94.5</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>87.4</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>92.2</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>55</v>
       </c>
-      <c r="F45" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="45" t="s">
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="1">
         <v>96.6</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="1">
         <v>90.1</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="1">
         <v>61.8</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="75" t="s">
+      <c r="F46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F49" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="G49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J49" s="56" t="s">
+      <c r="J49" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="75" t="s">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="54">
+      <c r="C50" s="1">
         <v>84.6</v>
       </c>
-      <c r="D50" s="54">
+      <c r="D50" s="1">
         <v>81.2</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>244</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="1">
         <v>828.79</v>
       </c>
-      <c r="G50" s="77">
+      <c r="G50" s="2">
         <v>1.21</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H50" s="2">
         <v>168</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>32.020000000000003</v>
       </c>
-      <c r="J50" s="56"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="54" t="s">
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="75" t="s">
+      <c r="B51" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="1">
         <v>83.9</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>316</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="1">
         <v>670.32</v>
       </c>
-      <c r="G51" s="77">
+      <c r="G51" s="2">
         <v>1.49</v>
       </c>
-      <c r="H51" s="53">
+      <c r="H51" s="2">
         <v>178</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>41.35</v>
       </c>
-      <c r="J51" s="56"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="75" t="s">
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="54">
+      <c r="C52" s="1">
         <v>97.1</v>
       </c>
-      <c r="D52" s="54">
+      <c r="D52" s="1">
         <v>96.4</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>14.4</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>61.16</v>
       </c>
-      <c r="G52" s="54">
+      <c r="G52" s="1">
         <v>16.399999999999999</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H52" s="2">
         <v>15.8</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>7.01</v>
       </c>
-      <c r="J52" s="56"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="75" t="s">
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="75" t="s">
+      <c r="B53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="54">
+      <c r="C53" s="1">
         <v>97.9</v>
       </c>
-      <c r="D53" s="54">
+      <c r="D53" s="1">
         <v>97.2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>19.7</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>35.840000000000003</v>
       </c>
-      <c r="G53" s="53">
+      <c r="G53" s="2">
         <v>27.9</v>
       </c>
-      <c r="H53" s="53">
+      <c r="H53" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>9.65</v>
       </c>
-      <c r="J53" s="56"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H57" s="73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E58" s="35"/>
-      <c r="H58" s="73"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2">
-        <v>1</v>
-      </c>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2834,7 +2297,7 @@
     <mergeCell ref="L13:L16"/>
     <mergeCell ref="L18:L23"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
